--- a/data/dataset_example.xlsx
+++ b/data/dataset_example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18360" windowHeight="14700"/>
+    <workbookView windowWidth="27480" windowHeight="12400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>c_open</t>
   </si>
@@ -55,10 +55,19 @@
     <t>log volume?(not used)</t>
   </si>
   <si>
+    <t>除权价格,用这个算label</t>
+  </si>
+  <si>
     <t>0 if movement in [-0.005, 0.0055]</t>
   </si>
   <si>
     <t>-123321 'if 'not 'exist</t>
+  </si>
+  <si>
+    <t>trading_dates.csv</t>
+  </si>
+  <si>
+    <t>需要每一列都是一个trading dates</t>
   </si>
 </sst>
 </file>
@@ -68,8 +77,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -96,6 +105,67 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,6 +179,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -117,40 +202,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,58 +232,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -233,13 +242,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,169 +410,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,6 +449,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -461,6 +481,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -475,27 +510,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -515,159 +533,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -747,15 +756,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1270</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>212725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>264160</xdr:colOff>
+      <xdr:colOff>265430</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>103505</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -772,7 +781,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1117600"/>
+          <a:off x="1270" y="1106805"/>
           <a:ext cx="4165600" cy="1231900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -789,15 +798,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1270</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>391160</xdr:colOff>
+      <xdr:colOff>392430</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>55880</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -814,7 +823,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2905760"/>
+          <a:off x="1270" y="2894330"/>
           <a:ext cx="4292600" cy="1397000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1131,13 +1140,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -1185,19 +1194,30 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="12:12">
+    <row r="3" spans="5:12">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
       <c r="L3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="12:12">
       <c r="L4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
